--- a/02受控区/02-数据库资料/November数据表结构.xlsx
+++ b/02受控区/02-数据库资料/November数据表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="447">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1274,494 +1274,497 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端操作系统版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov_notice_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知类型:1-sms,2-email,3-message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送类型：1-系统通知，2-用户通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发送：0-不发送，1-发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operator_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3000)</t>
+  </si>
+  <si>
+    <t>操作结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov_operation_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov_shop</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>可为空</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>shop_id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>shop_name</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>店铺名称</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>shop_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov_warehouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov_user_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descript</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>res_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源类型</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源唯一字符串</t>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可用(0:可用  1:不可用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源的shiro  permission字符串</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_backup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ur_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov_resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nov_role_resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refererURL</t>
+  </si>
+  <si>
+    <t>链接页面源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会话ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览器版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端操作系统版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov_notice_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知类型:1-sms,2-email,3-message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送类型：1-系统通知，2-用户通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否发送：0-不发送，1-发送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(250)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send_route</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信通道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operator_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作类型标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(3000)</t>
-  </si>
-  <si>
-    <t>操作结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov_operation_log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov_shop</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>可为空</t>
-  </si>
-  <si>
-    <t>默认</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>shop_id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>shop_name</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>店铺名称</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>用户</t>
-  </si>
-  <si>
-    <t>shop_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov_warehouse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov_user_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>descript</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>res_string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>per_string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源类型</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源唯一字符串</t>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可用(0:可用  1:不可用)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源的shiro  permission字符串</t>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_backup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ur_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov_resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nov_role_resource</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1805,7 +1808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1829,6 +1832,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2122,7 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2132,13 +2138,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -2363,7 +2369,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>60</v>
@@ -2440,13 +2446,13 @@
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A28" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.5">
@@ -2495,13 +2501,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -2613,13 +2619,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -2735,13 +2741,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -2846,13 +2852,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -3020,13 +3026,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -3216,13 +3222,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -3345,13 +3351,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
@@ -3518,13 +3524,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
@@ -3691,13 +3697,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
@@ -3787,13 +3793,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
@@ -3894,13 +3900,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
@@ -3921,55 +3927,55 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
@@ -4018,13 +4024,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
@@ -4146,10 +4152,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.59765625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -4158,13 +4164,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
@@ -4191,10 +4197,10 @@
         <v>317</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>318</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
@@ -4202,10 +4208,10 @@
         <v>304</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
@@ -4216,18 +4222,18 @@
         <v>71</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
+      <c r="B6" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
@@ -4235,10 +4241,10 @@
         <v>307</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
@@ -4246,10 +4252,10 @@
         <v>308</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
@@ -4257,10 +4263,10 @@
         <v>309</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>322</v>
+        <v>446</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
@@ -4268,10 +4274,10 @@
         <v>310</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>321</v>
+        <v>446</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
@@ -4279,10 +4285,10 @@
         <v>311</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
@@ -4290,10 +4296,10 @@
         <v>312</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>321</v>
+        <v>446</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
@@ -4301,10 +4307,10 @@
         <v>313</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>321</v>
+        <v>446</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
@@ -4315,7 +4321,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
@@ -4326,7 +4332,7 @@
         <v>127</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
@@ -4334,31 +4340,42 @@
         <v>316</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>67</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4386,13 +4403,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
@@ -4432,13 +4449,13 @@
   <sheetFormatPr defaultColWidth="20.546875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
@@ -4459,22 +4476,22 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -4482,12 +4499,12 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>46</v>
@@ -4495,46 +4512,46 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4560,37 +4577,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>400</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>7</v>
@@ -4625,73 +4642,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>6</v>
@@ -4736,13 +4753,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
@@ -4763,38 +4780,38 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -4843,13 +4860,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
@@ -4870,43 +4887,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>73</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>73</v>
@@ -4915,29 +4932,29 @@
         <v>7</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
@@ -4986,13 +5003,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
@@ -5013,10 +5030,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>7</v>
@@ -5027,24 +5044,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -5093,13 +5110,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
@@ -5120,7 +5137,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -5135,7 +5152,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -5145,19 +5162,19 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>0</v>
@@ -5165,7 +5182,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -5175,12 +5192,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -5190,95 +5207,95 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5304,13 +5321,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -5411,13 +5428,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -5518,13 +5535,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -5581,13 +5598,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
